--- a/tests/expected_results/result_test_write_results_grupeer_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_grupeer_missing_month.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t xml:space="preserve">Plattform</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1482,7 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1709,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1784,11 +1781,11 @@
         <v>18</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
+      <c r="C3" s="2" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1.89</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>-525.35</v>
